--- a/Proyecto_MYS/Dateframe_aireBog.xlsx
+++ b/Proyecto_MYS/Dateframe_aireBog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\OneDrive\Escritorio\PMYS\INTRODUCCION A PYTHON\INTRODUCCION_A_PYTHON_PC\Proyecto_MYS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADB1BB-4051-44B4-B613-1F1B5F820A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F94003-BD11-4AE3-A651-8948F38B88E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1932BD2F-676E-44CF-9B0A-9473DADC522C}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -243,10 +243,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F0BA7-66BC-4676-AF30-209C08B08F55}">
   <dimension ref="A1:R2290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2226" workbookViewId="0">
-      <selection activeCell="F2238" sqref="F2238"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2277" sqref="J2277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Proyecto_MYS/Dateframe_aireBog.xlsx
+++ b/Proyecto_MYS/Dateframe_aireBog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\OneDrive\Escritorio\PMYS\INTRODUCCION A PYTHON\INTRODUCCION_A_PYTHON_PC\Proyecto_MYS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CADB1BB-4051-44B4-B613-1F1B5F820A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F98804F-FB38-4A07-AB02-91935AF9A6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1932BD2F-676E-44CF-9B0A-9473DADC522C}"/>
   </bookViews>
@@ -189,7 +189,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -243,10 +243,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F0BA7-66BC-4676-AF30-209C08B08F55}">
   <dimension ref="A1:R2290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2226" workbookViewId="0">
-      <selection activeCell="F2238" sqref="F2238"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2277" sqref="J2277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
